--- a/docs/Language Waves/Wave7.xlsx
+++ b/docs/Language Waves/Wave7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saisara\Desktop\Wave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\Language Waves\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="de_intl" sheetId="5" r:id="rId1"/>
@@ -467,9 +467,6 @@
     <t>architecture-var4</t>
   </si>
   <si>
-    <t>solution-listing-var9</t>
-  </si>
-  <si>
     <t>index-internetvar1</t>
   </si>
   <si>
@@ -1233,6 +1230,9 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/IL/products/index.html</t>
+  </si>
+  <si>
+    <t>solutions-listing-var9</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,10 +1681,10 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,10 +1698,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,10 +1783,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,10 +1800,10 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,10 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,10 +1885,10 @@
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,10 +1902,10 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,10 +1919,10 @@
         <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,10 +1936,10 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,10 +1970,10 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,10 +1987,10 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,10 +2004,10 @@
         <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,10 +2021,10 @@
         <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,10 +2038,10 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,13 +2049,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,10 +2069,10 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,10 +2086,10 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2103,10 +2103,10 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,10 +2120,10 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2137,10 +2137,10 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,10 +2154,10 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,10 +2171,10 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,13 +2185,13 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,13 +2202,13 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,30 +2219,30 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2250,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,13 +2264,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,13 +2281,13 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,13 +2298,13 @@
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,13 +2315,13 @@
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,13 +2332,13 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,13 +2349,13 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,13 +2366,13 @@
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,13 +2383,13 @@
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,13 +2400,13 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,13 +2417,13 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,13 +2431,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,13 +2448,13 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,13 +2465,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,13 +2482,13 @@
         <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,13 +2499,13 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,13 +2516,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,13 +2533,13 @@
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,13 +2550,13 @@
         <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,13 +2567,13 @@
         <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,13 +2584,13 @@
         <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,13 +2601,13 @@
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,13 +2618,13 @@
         <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,13 +2635,13 @@
         <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,13 +2652,13 @@
         <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,13 +2669,13 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,13 +2686,13 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,13 +2703,13 @@
         <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,13 +2720,13 @@
         <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,13 +2737,13 @@
         <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,13 +2754,13 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,13 +2771,13 @@
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,13 +2788,13 @@
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,13 +2805,13 @@
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,13 +2822,13 @@
         <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,13 +2839,13 @@
         <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,13 +2856,13 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,13 +2873,13 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,13 +2890,13 @@
         <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,13 +2907,13 @@
         <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,13 +2924,13 @@
         <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,13 +2941,13 @@
         <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,13 +2958,13 @@
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,13 +2975,13 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,13 +2992,13 @@
         <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,10 +3012,10 @@
         <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,13 +3043,13 @@
         <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,13 +3060,13 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,13 +3077,13 @@
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,13 +3094,13 @@
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,13 +3111,13 @@
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,13 +3128,13 @@
         <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,13 +3145,13 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,10 +3198,10 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,10 +3245,10 @@
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3259,10 +3259,10 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,10 +3276,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3293,10 +3293,10 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3310,10 +3310,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3327,10 +3327,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,10 +3378,10 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3395,10 +3395,10 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3412,10 +3412,10 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3429,10 +3429,10 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3446,10 +3446,10 @@
         <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3463,10 +3463,10 @@
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,10 +3480,10 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,10 +3497,10 @@
         <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,10 +3514,10 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3531,10 +3531,10 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,10 +3548,10 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,10 +3565,10 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,10 +3599,10 @@
         <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,10 +3616,10 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,13 +3627,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,10 +3647,10 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3681,10 +3681,10 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,10 +3698,10 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,10 +3715,10 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3749,10 +3749,10 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,13 +3763,13 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,13 +3780,13 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,30 +3797,30 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3828,13 +3828,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3842,13 +3842,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3859,13 +3859,13 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3876,13 +3876,13 @@
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,13 +3893,13 @@
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,13 +3910,13 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,13 +3927,13 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,13 +3944,13 @@
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,13 +3961,13 @@
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3978,13 +3978,13 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3995,13 +3995,13 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,13 +4009,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,13 +4026,13 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,13 +4043,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4060,13 +4060,13 @@
         <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,13 +4077,13 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,13 +4094,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4111,13 @@
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,13 +4128,13 @@
         <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4145,13 +4145,13 @@
         <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4162,13 +4162,13 @@
         <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,13 +4179,13 @@
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4196,13 +4196,13 @@
         <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,13 +4213,13 @@
         <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,13 +4230,13 @@
         <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4247,13 +4247,13 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,13 +4264,13 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,13 +4281,13 @@
         <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,13 +4298,13 @@
         <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,13 +4315,13 @@
         <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,13 +4332,13 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,13 +4349,13 @@
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,13 +4366,13 @@
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4383,13 +4383,13 @@
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,13 +4400,13 @@
         <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4417,13 +4417,13 @@
         <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4434,13 +4434,13 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4451,13 +4451,13 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,13 +4468,13 @@
         <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,13 +4485,13 @@
         <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,13 +4502,13 @@
         <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,13 +4519,13 @@
         <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4536,13 +4536,13 @@
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4553,13 +4553,13 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,10 +4590,10 @@
         <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4604,13 +4604,13 @@
         <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,13 +4621,13 @@
         <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4638,13 +4638,13 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4655,13 +4655,13 @@
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4672,13 +4672,13 @@
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4689,13 +4689,13 @@
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4706,13 +4706,13 @@
         <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4723,13 +4723,13 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4759,93 +4759,93 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -4854,15 +4854,15 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -4871,15 +4871,15 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -4888,15 +4888,15 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -4905,15 +4905,15 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -4922,15 +4922,15 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>94</v>
@@ -4939,15 +4939,15 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -4956,15 +4956,15 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
@@ -4973,15 +4973,15 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
@@ -4990,15 +4990,15 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
@@ -5007,15 +5007,15 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
@@ -5024,15 +5024,15 @@
         <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -5041,15 +5041,15 @@
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>95</v>
@@ -5058,15 +5058,15 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -5075,15 +5075,15 @@
         <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>95</v>
@@ -5092,15 +5092,15 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -5109,15 +5109,15 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -5126,15 +5126,15 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>96</v>
@@ -5143,15 +5143,15 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
         <v>96</v>
@@ -5160,15 +5160,15 @@
         <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
         <v>96</v>
@@ -5177,15 +5177,15 @@
         <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
@@ -5194,29 +5194,29 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -5225,15 +5225,15 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
         <v>97</v>
@@ -5242,15 +5242,15 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
         <v>98</v>
@@ -5259,15 +5259,15 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
@@ -5276,15 +5276,15 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
@@ -5293,15 +5293,15 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -5310,15 +5310,15 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
@@ -5327,839 +5327,839 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s">
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
         <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
         <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
         <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
         <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
         <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B82" t="s">
         <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
         <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
         <v>113</v>
@@ -6168,146 +6168,146 @@
         <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
         <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
         <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
         <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6336,93 +6336,93 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -6431,15 +6431,15 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -6448,15 +6448,15 @@
         <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -6465,15 +6465,15 @@
         <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -6482,15 +6482,15 @@
         <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -6499,15 +6499,15 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -6516,29 +6516,29 @@
         <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -6547,15 +6547,15 @@
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -6564,15 +6564,15 @@
         <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -6581,15 +6581,15 @@
         <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -6598,15 +6598,15 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -6615,613 +6615,613 @@
         <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7246,93 +7246,93 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -7341,15 +7341,15 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -7358,15 +7358,15 @@
         <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -7375,15 +7375,15 @@
         <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -7392,15 +7392,15 @@
         <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -7409,15 +7409,15 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -7426,29 +7426,29 @@
         <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -7457,15 +7457,15 @@
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -7474,15 +7474,15 @@
         <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -7491,15 +7491,15 @@
         <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -7508,15 +7508,15 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -7525,613 +7525,613 @@
         <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8156,93 +8156,93 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -8251,15 +8251,15 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -8268,15 +8268,15 @@
         <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -8285,15 +8285,15 @@
         <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -8302,15 +8302,15 @@
         <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -8319,15 +8319,15 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -8336,29 +8336,29 @@
         <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -8367,15 +8367,15 @@
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -8384,15 +8384,15 @@
         <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -8401,15 +8401,15 @@
         <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -8418,15 +8418,15 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -8435,613 +8435,613 @@
         <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -9053,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9066,68 +9066,68 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
@@ -9136,15 +9136,15 @@
         <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -9153,24 +9153,24 @@
         <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Language Waves/Wave7.xlsx
+++ b/docs/Language Waves/Wave7.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\Language Waves\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="de_intl" sheetId="5" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="en_ae" sheetId="10" r:id="rId6"/>
     <sheet name="en_il" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -872,9 +867,6 @@
     <t>http://www.cisco.com/web/IN/solutions/sp/videoscape/index.html</t>
   </si>
   <si>
-    <t>index-spvideosolutionsvar4</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DE/solutions/sp/videoscape/index.html</t>
   </si>
   <si>
@@ -1233,6 +1225,9 @@
   </si>
   <si>
     <t>solutions-listing-var9</t>
+  </si>
+  <si>
+    <t>index-videoscapevar3</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1590,18 +1585,18 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1643,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1654,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1668,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1801,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1937,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +1988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2070,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2109,7 +2104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2143,7 +2138,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2160,7 +2155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2177,7 +2172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
@@ -2194,7 +2189,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2211,7 +2206,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2228,15 +2223,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
@@ -2245,7 +2240,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -2259,7 +2254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2302,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2324,7 +2319,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2341,7 +2336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2409,7 +2404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2440,7 +2435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -2474,7 +2469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -2491,7 +2486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2508,7 +2503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -2525,7 +2520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -2542,7 +2537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -2559,7 +2554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -2576,7 +2571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2639,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -2661,7 +2656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -2678,7 +2673,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -2695,7 +2690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -2712,7 +2707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -2729,7 +2724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -2763,7 +2758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -2814,7 +2809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -2831,7 +2826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -2865,7 +2860,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -2882,7 +2877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -2899,7 +2894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -2950,7 +2945,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -3001,7 +2996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -3018,7 +3013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -3035,7 +3030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -3086,7 +3081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -3103,7 +3098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -3120,7 +3115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -3137,7 +3132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -3169,17 +3164,17 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3185,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3226,7 +3221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3237,7 +3232,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3246,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +3260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3277,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3299,7 +3294,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3367,7 +3362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3384,7 +3379,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3401,7 +3396,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +3413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3435,7 +3430,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3469,7 +3464,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3486,7 +3481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3520,7 +3515,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3588,7 +3583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3605,7 +3600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3636,7 +3631,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3653,7 +3648,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3670,7 +3665,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3721,7 +3716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3738,7 +3733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3755,7 +3750,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
@@ -3772,7 +3767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -3806,15 +3801,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
@@ -3823,7 +3818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -3868,7 +3863,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -3885,7 +3880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3902,7 +3897,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -3936,7 +3931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -3953,7 +3948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -4004,7 +3999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -4018,7 +4013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -4035,7 +4030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -4052,7 +4047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -4103,7 +4098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -4120,7 +4115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -4137,7 +4132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -4154,7 +4149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -4171,7 +4166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -4205,7 +4200,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -4222,7 +4217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -4239,7 +4234,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -4256,7 +4251,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -4273,7 +4268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -4290,7 +4285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -4307,7 +4302,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -4358,7 +4353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -4375,7 +4370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -4409,7 +4404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -4426,7 +4421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -4443,7 +4438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -4477,7 +4472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -4494,7 +4489,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -4511,7 +4506,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -4562,7 +4557,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -4613,7 +4608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -4630,7 +4625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -4647,7 +4642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -4664,7 +4659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -4681,7 +4676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -4698,7 +4693,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -4746,18 +4741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4782,7 +4777,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>188</v>
       </c>
@@ -4793,7 +4788,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>189</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>190</v>
       </c>
@@ -4815,7 +4810,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>191</v>
       </c>
@@ -4829,7 +4824,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>192</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>193</v>
       </c>
@@ -4860,7 +4855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>194</v>
       </c>
@@ -4877,7 +4872,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>195</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>196</v>
       </c>
@@ -4911,7 +4906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>197</v>
       </c>
@@ -4928,7 +4923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>198</v>
       </c>
@@ -4945,7 +4940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>199</v>
       </c>
@@ -4962,7 +4957,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
@@ -4979,7 +4974,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>201</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>202</v>
       </c>
@@ -5013,7 +5008,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -5030,7 +5025,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -5047,7 +5042,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -5064,7 +5059,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>206</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>207</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>208</v>
       </c>
@@ -5115,7 +5110,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>209</v>
       </c>
@@ -5132,7 +5127,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>210</v>
       </c>
@@ -5149,7 +5144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>211</v>
       </c>
@@ -5166,7 +5161,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>212</v>
       </c>
@@ -5183,7 +5178,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>213</v>
       </c>
@@ -5200,7 +5195,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>214</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
@@ -5231,7 +5226,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>216</v>
       </c>
@@ -5248,7 +5243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>217</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>218</v>
       </c>
@@ -5282,7 +5277,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>220</v>
       </c>
@@ -5316,7 +5311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>221</v>
       </c>
@@ -5333,7 +5328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>222</v>
       </c>
@@ -5341,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
@@ -5350,7 +5345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>277</v>
       </c>
@@ -5367,7 +5362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>278</v>
       </c>
@@ -5384,7 +5379,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>279</v>
       </c>
@@ -5392,7 +5387,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
@@ -5401,7 +5396,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>223</v>
       </c>
@@ -5415,7 +5410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
@@ -5429,7 +5424,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>225</v>
       </c>
@@ -5446,7 +5441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>226</v>
       </c>
@@ -5463,7 +5458,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>227</v>
       </c>
@@ -5480,7 +5475,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>229</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>230</v>
       </c>
@@ -5531,7 +5526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>231</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>232</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>233</v>
       </c>
@@ -5582,7 +5577,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>234</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>235</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>236</v>
       </c>
@@ -5630,7 +5625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>237</v>
       </c>
@@ -5647,7 +5642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>238</v>
       </c>
@@ -5664,7 +5659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>239</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>240</v>
       </c>
@@ -5698,7 +5693,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -5715,7 +5710,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>242</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>243</v>
       </c>
@@ -5749,7 +5744,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>244</v>
       </c>
@@ -5766,7 +5761,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>245</v>
       </c>
@@ -5783,7 +5778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>246</v>
       </c>
@@ -5800,12 +5795,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
@@ -5817,7 +5812,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>248</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>249</v>
       </c>
@@ -5851,7 +5846,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>250</v>
       </c>
@@ -5868,7 +5863,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>251</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>252</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>253</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>254</v>
       </c>
@@ -5936,7 +5931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -5953,7 +5948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>256</v>
       </c>
@@ -5970,7 +5965,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>257</v>
       </c>
@@ -5987,7 +5982,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>258</v>
       </c>
@@ -6004,7 +5999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>259</v>
       </c>
@@ -6021,7 +6016,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>260</v>
       </c>
@@ -6038,7 +6033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>261</v>
       </c>
@@ -6055,7 +6050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>262</v>
       </c>
@@ -6072,7 +6067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>263</v>
       </c>
@@ -6089,7 +6084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>264</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>265</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>266</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -6157,7 +6152,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -6174,7 +6169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>269</v>
       </c>
@@ -6191,7 +6186,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>270</v>
       </c>
@@ -6208,7 +6203,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>271</v>
       </c>
@@ -6225,7 +6220,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>272</v>
       </c>
@@ -6242,7 +6237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>273</v>
       </c>
@@ -6259,7 +6254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
@@ -6276,7 +6271,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>275</v>
       </c>
@@ -6293,7 +6288,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>276</v>
       </c>
@@ -6327,16 +6322,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>182</v>
@@ -6347,7 +6342,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -6361,7 +6356,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -6372,7 +6367,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -6383,7 +6378,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -6394,7 +6389,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -6408,7 +6403,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -6422,7 +6417,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -6439,7 +6434,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -6456,7 +6451,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -6473,7 +6468,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -6490,7 +6485,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -6507,7 +6502,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -6524,7 +6519,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
@@ -6538,7 +6533,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -6555,7 +6550,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -6572,7 +6567,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -6589,7 +6584,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -6606,7 +6601,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -6623,7 +6618,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>147</v>
@@ -6637,7 +6632,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -6651,7 +6646,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -6668,7 +6663,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -6685,7 +6680,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
@@ -6702,7 +6697,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -6719,7 +6714,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
@@ -6736,7 +6731,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -6753,7 +6748,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
@@ -6770,7 +6765,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
@@ -6787,7 +6782,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s">
         <v>156</v>
@@ -6801,7 +6796,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
@@ -6818,7 +6813,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
@@ -6835,7 +6830,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -6852,7 +6847,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -6869,7 +6864,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
@@ -6886,7 +6881,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
@@ -6903,7 +6898,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
@@ -6920,7 +6915,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
@@ -6937,7 +6932,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
@@ -6954,7 +6949,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -6971,7 +6966,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -6988,7 +6983,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -7005,7 +7000,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
@@ -7022,7 +7017,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
@@ -7039,7 +7034,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -7056,7 +7051,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
@@ -7073,7 +7068,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -7090,7 +7085,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
@@ -7107,7 +7102,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -7124,7 +7119,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
@@ -7141,7 +7136,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
@@ -7158,7 +7153,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
@@ -7175,7 +7170,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
@@ -7192,7 +7187,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
@@ -7209,7 +7204,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -7237,16 +7232,16 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>182</v>
@@ -7255,9 +7250,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -7269,9 +7264,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -7280,9 +7275,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -7291,9 +7286,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -7302,9 +7297,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -7316,9 +7311,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -7330,9 +7325,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -7347,9 +7342,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -7364,9 +7359,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -7381,9 +7376,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -7398,9 +7393,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -7415,9 +7410,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -7432,9 +7427,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
@@ -7446,9 +7441,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -7463,9 +7458,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -7480,9 +7475,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -7497,9 +7492,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -7514,9 +7509,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -7531,9 +7526,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>147</v>
@@ -7545,9 +7540,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -7559,9 +7554,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -7576,9 +7571,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -7593,9 +7588,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
@@ -7610,9 +7605,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -7627,9 +7622,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
@@ -7644,9 +7639,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -7661,9 +7656,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
@@ -7678,9 +7673,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
@@ -7695,9 +7690,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s">
         <v>156</v>
@@ -7709,9 +7704,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
@@ -7726,9 +7721,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
@@ -7743,9 +7738,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -7760,9 +7755,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -7777,9 +7772,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
@@ -7794,9 +7789,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
@@ -7811,9 +7806,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
@@ -7828,9 +7823,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
@@ -7845,9 +7840,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
@@ -7862,9 +7857,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -7879,9 +7874,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -7896,9 +7891,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -7913,9 +7908,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
@@ -7930,9 +7925,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
@@ -7947,9 +7942,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -7964,9 +7959,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
@@ -7981,9 +7976,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -7998,9 +7993,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
@@ -8015,9 +8010,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -8032,9 +8027,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
@@ -8049,9 +8044,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
@@ -8066,9 +8061,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
@@ -8083,9 +8078,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
@@ -8100,9 +8095,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
@@ -8117,9 +8112,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -8147,16 +8142,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
         <v>182</v>
@@ -8165,9 +8160,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -8179,9 +8174,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -8190,9 +8185,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -8201,9 +8196,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -8212,9 +8207,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -8226,9 +8221,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -8240,9 +8235,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -8257,9 +8252,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
@@ -8274,9 +8269,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -8291,9 +8286,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -8308,9 +8303,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
@@ -8325,9 +8320,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -8342,9 +8337,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
@@ -8356,9 +8351,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -8373,9 +8368,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
@@ -8390,9 +8385,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -8407,9 +8402,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -8424,9 +8419,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -8441,9 +8436,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
         <v>147</v>
@@ -8455,9 +8450,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -8469,9 +8464,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -8486,9 +8481,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -8503,9 +8498,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
@@ -8520,9 +8515,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -8537,9 +8532,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
@@ -8554,9 +8549,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -8571,9 +8566,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
@@ -8588,9 +8583,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
@@ -8605,9 +8600,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
         <v>156</v>
@@ -8619,9 +8614,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
@@ -8636,9 +8631,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
@@ -8653,9 +8648,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -8670,9 +8665,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -8687,9 +8682,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
@@ -8704,9 +8699,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
@@ -8721,9 +8716,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
@@ -8738,9 +8733,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
@@ -8755,9 +8750,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
@@ -8772,9 +8767,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8789,9 +8784,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8806,9 +8801,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8823,9 +8818,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
@@ -8840,9 +8835,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s">
         <v>110</v>
@@ -8857,9 +8852,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -8874,9 +8869,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
@@ -8891,9 +8886,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -8908,9 +8903,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
@@ -8925,9 +8920,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -8942,9 +8937,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
@@ -8959,9 +8954,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s">
         <v>113</v>
@@ -8976,9 +8971,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
@@ -8993,9 +8988,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
@@ -9010,9 +9005,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
@@ -9027,9 +9022,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -9057,16 +9052,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>182</v>
@@ -9077,7 +9072,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -9091,7 +9086,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -9102,7 +9097,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
@@ -9113,7 +9108,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -9127,7 +9122,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
@@ -9144,7 +9139,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -9161,7 +9156,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
         <v>156</v>

--- a/docs/Language Waves/Wave7.xlsx
+++ b/docs/Language Waves/Wave7.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7152"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="de_intl" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,10 @@
     <sheet name="ar_ae" sheetId="7" r:id="rId5"/>
     <sheet name="en_ae" sheetId="10" r:id="rId6"/>
     <sheet name="en_il" sheetId="12" r:id="rId7"/>
+    <sheet name="lt_ba" sheetId="13" r:id="rId8"/>
+    <sheet name="ru_intl" sheetId="14" r:id="rId9"/>
+    <sheet name="ru_ru" sheetId="15" r:id="rId10"/>
+    <sheet name="kk_kz" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="414">
   <si>
     <t>http://www.cisco.com/web/DE/ordering/index.html</t>
   </si>
@@ -1228,6 +1232,45 @@
   </si>
   <si>
     <t>index-videoscapevar3</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BA/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BA/techsupport/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BA/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BA/learning_events/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BA/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KZ/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KZ/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KZ/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KZ/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KZ/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/wireless/technology.html</t>
+  </si>
+  <si>
+    <t>technology-rvar2</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/products/wireless/technology.html</t>
   </si>
 </sst>
 </file>
@@ -1258,12 +1301,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1297,10 +1346,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -1362,7 +1413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,7 +1448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,7 +1625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1582,21 +1633,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1705,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1750,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1716,7 +1767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1801,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1784,7 +1835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1852,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1869,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1835,7 +1886,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1886,7 +1937,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1954,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +2005,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1971,7 +2022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +2039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2056,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2073,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2087,7 +2138,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2121,7 +2172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2189,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2155,7 +2206,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2172,7 +2223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2189,7 +2240,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2206,7 +2257,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2274,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
@@ -2240,7 +2291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -2254,7 +2305,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2319,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -2285,7 +2336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -2302,7 +2353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2387,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2370,7 +2421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -2387,7 +2438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2455,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -2421,7 +2472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2435,7 +2486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -2469,7 +2520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2503,7 +2554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -2520,7 +2571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -2537,7 +2588,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -2554,7 +2605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -2571,7 +2622,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2588,7 +2639,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -2605,7 +2656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2673,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -2639,7 +2690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -2656,7 +2707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -2673,7 +2724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -2690,7 +2741,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -2707,7 +2758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -2724,7 +2775,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -2758,7 +2809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -2775,7 +2826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -2792,7 +2843,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -2809,7 +2860,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -2826,7 +2877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -2843,7 +2894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -2860,7 +2911,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -2877,7 +2928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -2894,7 +2945,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -2911,7 +2962,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -2928,7 +2979,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -2945,7 +2996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -2962,7 +3013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -2979,7 +3030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -2996,7 +3047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -3013,7 +3064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -3030,7 +3081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -3047,7 +3098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -3064,7 +3115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -3081,7 +3132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -3098,7 +3149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -3115,7 +3166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -3132,7 +3183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -3146,6 +3197,23 @@
         <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3154,27 +3222,189 @@
     <hyperlink ref="A38" r:id="rId1"/>
     <hyperlink ref="A39" r:id="rId2"/>
     <hyperlink ref="A66" r:id="rId3"/>
+    <hyperlink ref="A95" r:id="rId4"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3429,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3210,7 +3440,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3462,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3246,7 +3476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3294,7 +3524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3311,7 +3541,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3328,7 +3558,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3362,7 +3592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3379,7 +3609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3396,7 +3626,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3643,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3430,7 +3660,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3447,7 +3677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3464,7 +3694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3481,7 +3711,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3498,7 +3728,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3515,7 +3745,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3762,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3549,7 +3779,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3566,7 +3796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3583,7 +3813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3600,7 +3830,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3617,7 +3847,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3631,7 +3861,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3648,7 +3878,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3665,7 +3895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3682,7 +3912,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3699,7 +3929,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3716,7 +3946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3733,7 +3963,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3750,7 +3980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -3784,7 +4014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -3801,7 +4031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
@@ -3818,7 +4048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +4062,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -3846,7 +4076,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -3863,7 +4093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -3880,7 +4110,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3897,7 +4127,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -3914,7 +4144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -3931,7 +4161,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -3948,7 +4178,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3965,7 +4195,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3982,7 +4212,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -3999,7 +4229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -4013,7 +4243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -4030,7 +4260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -4047,7 +4277,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -4064,7 +4294,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -4081,7 +4311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -4098,7 +4328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -4115,7 +4345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -4132,7 +4362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -4149,7 +4379,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -4166,7 +4396,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -4183,7 +4413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -4200,7 +4430,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -4217,7 +4447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -4234,7 +4464,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -4251,7 +4481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -4268,7 +4498,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -4285,7 +4515,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -4302,7 +4532,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -4319,7 +4549,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -4336,7 +4566,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -4353,7 +4583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -4370,7 +4600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -4387,7 +4617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -4404,7 +4634,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -4421,7 +4651,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -4438,7 +4668,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -4455,7 +4685,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -4472,7 +4702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -4489,7 +4719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -4506,7 +4736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -4523,7 +4753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -4540,7 +4770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -4557,7 +4787,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -4574,7 +4804,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -4591,7 +4821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -4608,7 +4838,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -4625,7 +4855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -4642,7 +4872,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -4659,7 +4889,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -4676,7 +4906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -4693,7 +4923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -4710,7 +4940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -4724,6 +4954,23 @@
         <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4732,6 +4979,7 @@
     <hyperlink ref="A38" r:id="rId1"/>
     <hyperlink ref="A39" r:id="rId2"/>
     <hyperlink ref="A66" r:id="rId3"/>
+    <hyperlink ref="A95" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4739,20 +4987,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
@@ -4763,7 +5011,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4777,7 +5025,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>188</v>
       </c>
@@ -4788,7 +5036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>189</v>
       </c>
@@ -4799,7 +5047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>190</v>
       </c>
@@ -4810,7 +5058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>191</v>
       </c>
@@ -4824,7 +5072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>192</v>
       </c>
@@ -4838,7 +5086,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>193</v>
       </c>
@@ -4855,7 +5103,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>194</v>
       </c>
@@ -4872,7 +5120,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>195</v>
       </c>
@@ -4889,7 +5137,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>196</v>
       </c>
@@ -4906,7 +5154,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>197</v>
       </c>
@@ -4923,7 +5171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>198</v>
       </c>
@@ -4940,7 +5188,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>199</v>
       </c>
@@ -4957,7 +5205,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
@@ -4974,7 +5222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>201</v>
       </c>
@@ -4991,7 +5239,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>202</v>
       </c>
@@ -5008,7 +5256,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -5025,7 +5273,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -5042,7 +5290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -5059,7 +5307,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>206</v>
       </c>
@@ -5076,7 +5324,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>207</v>
       </c>
@@ -5093,7 +5341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>208</v>
       </c>
@@ -5110,7 +5358,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>209</v>
       </c>
@@ -5127,7 +5375,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>210</v>
       </c>
@@ -5144,7 +5392,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>211</v>
       </c>
@@ -5161,7 +5409,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>212</v>
       </c>
@@ -5178,7 +5426,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>213</v>
       </c>
@@ -5195,7 +5443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>214</v>
       </c>
@@ -5209,7 +5457,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
@@ -5226,7 +5474,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>216</v>
       </c>
@@ -5243,7 +5491,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>217</v>
       </c>
@@ -5260,7 +5508,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>218</v>
       </c>
@@ -5277,7 +5525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -5294,7 +5542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>220</v>
       </c>
@@ -5311,7 +5559,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>221</v>
       </c>
@@ -5328,7 +5576,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>222</v>
       </c>
@@ -5345,7 +5593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>277</v>
       </c>
@@ -5362,7 +5610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>278</v>
       </c>
@@ -5379,7 +5627,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>279</v>
       </c>
@@ -5396,7 +5644,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>223</v>
       </c>
@@ -5410,7 +5658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
@@ -5424,7 +5672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>225</v>
       </c>
@@ -5441,7 +5689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>226</v>
       </c>
@@ -5458,7 +5706,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>227</v>
       </c>
@@ -5475,7 +5723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -5492,7 +5740,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>229</v>
       </c>
@@ -5509,7 +5757,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>230</v>
       </c>
@@ -5526,7 +5774,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>231</v>
       </c>
@@ -5543,7 +5791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>232</v>
       </c>
@@ -5560,7 +5808,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>233</v>
       </c>
@@ -5577,7 +5825,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>234</v>
       </c>
@@ -5591,7 +5839,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>235</v>
       </c>
@@ -5608,7 +5856,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>236</v>
       </c>
@@ -5625,7 +5873,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>237</v>
       </c>
@@ -5642,7 +5890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>238</v>
       </c>
@@ -5659,7 +5907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>239</v>
       </c>
@@ -5676,7 +5924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>240</v>
       </c>
@@ -5693,7 +5941,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -5710,7 +5958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>242</v>
       </c>
@@ -5727,7 +5975,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>243</v>
       </c>
@@ -5744,7 +5992,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>244</v>
       </c>
@@ -5761,7 +6009,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>245</v>
       </c>
@@ -5778,7 +6026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>246</v>
       </c>
@@ -5795,7 +6043,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
@@ -5812,7 +6060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>248</v>
       </c>
@@ -5829,7 +6077,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>249</v>
       </c>
@@ -5846,7 +6094,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>250</v>
       </c>
@@ -5863,7 +6111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>251</v>
       </c>
@@ -5880,7 +6128,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>252</v>
       </c>
@@ -5897,7 +6145,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>253</v>
       </c>
@@ -5914,7 +6162,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>254</v>
       </c>
@@ -5931,7 +6179,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -5948,7 +6196,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>256</v>
       </c>
@@ -5965,7 +6213,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>257</v>
       </c>
@@ -5982,7 +6230,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>258</v>
       </c>
@@ -5999,7 +6247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>259</v>
       </c>
@@ -6016,7 +6264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>260</v>
       </c>
@@ -6033,7 +6281,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>261</v>
       </c>
@@ -6050,7 +6298,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>262</v>
       </c>
@@ -6067,7 +6315,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>263</v>
       </c>
@@ -6084,7 +6332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>264</v>
       </c>
@@ -6101,7 +6349,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>265</v>
       </c>
@@ -6118,7 +6366,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>266</v>
       </c>
@@ -6135,7 +6383,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -6152,7 +6400,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -6169,7 +6417,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>269</v>
       </c>
@@ -6186,7 +6434,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>270</v>
       </c>
@@ -6203,7 +6451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>271</v>
       </c>
@@ -6220,7 +6468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>272</v>
       </c>
@@ -6237,7 +6485,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>273</v>
       </c>
@@ -6254,7 +6502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
@@ -6271,7 +6519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>275</v>
       </c>
@@ -6288,7 +6536,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>276</v>
       </c>
@@ -6302,6 +6550,23 @@
         <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6309,6 +6574,7 @@
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1"/>
     <hyperlink ref="A39" r:id="rId2"/>
+    <hyperlink ref="A95" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6322,11 +6588,11 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,14 +7498,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>282</v>
       </c>
@@ -7250,7 +7516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>283</v>
       </c>
@@ -7264,7 +7530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>284</v>
       </c>
@@ -7275,7 +7541,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>285</v>
       </c>
@@ -7286,7 +7552,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>286</v>
       </c>
@@ -7297,7 +7563,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>287</v>
       </c>
@@ -7311,7 +7577,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>288</v>
       </c>
@@ -7325,7 +7591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
@@ -7342,7 +7608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>290</v>
       </c>
@@ -7359,7 +7625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>291</v>
       </c>
@@ -7376,7 +7642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>292</v>
       </c>
@@ -7393,7 +7659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>293</v>
       </c>
@@ -7410,7 +7676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>294</v>
       </c>
@@ -7427,7 +7693,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
@@ -7441,7 +7707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>296</v>
       </c>
@@ -7458,7 +7724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>297</v>
       </c>
@@ -7475,7 +7741,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>298</v>
       </c>
@@ -7492,7 +7758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>299</v>
       </c>
@@ -7509,7 +7775,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>300</v>
       </c>
@@ -7526,7 +7792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>301</v>
       </c>
@@ -7540,7 +7806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>302</v>
       </c>
@@ -7554,7 +7820,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>303</v>
       </c>
@@ -7571,7 +7837,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>304</v>
       </c>
@@ -7588,7 +7854,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>305</v>
       </c>
@@ -7605,7 +7871,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>281</v>
       </c>
@@ -7622,7 +7888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>306</v>
       </c>
@@ -7639,7 +7905,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>307</v>
       </c>
@@ -7656,7 +7922,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>308</v>
       </c>
@@ -7673,7 +7939,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>309</v>
       </c>
@@ -7690,7 +7956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>310</v>
       </c>
@@ -7704,7 +7970,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>311</v>
       </c>
@@ -7721,7 +7987,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>312</v>
       </c>
@@ -7738,7 +8004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>313</v>
       </c>
@@ -7755,7 +8021,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>314</v>
       </c>
@@ -7772,7 +8038,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>315</v>
       </c>
@@ -7789,7 +8055,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>316</v>
       </c>
@@ -7806,7 +8072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>317</v>
       </c>
@@ -7823,7 +8089,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>318</v>
       </c>
@@ -7840,7 +8106,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>319</v>
       </c>
@@ -7857,7 +8123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>320</v>
       </c>
@@ -7874,7 +8140,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -7891,7 +8157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -7908,7 +8174,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>323</v>
       </c>
@@ -7925,7 +8191,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>324</v>
       </c>
@@ -7942,7 +8208,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>325</v>
       </c>
@@ -7959,7 +8225,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>326</v>
       </c>
@@ -7976,7 +8242,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>327</v>
       </c>
@@ -7993,7 +8259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>328</v>
       </c>
@@ -8010,7 +8276,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>329</v>
       </c>
@@ -8027,7 +8293,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>330</v>
       </c>
@@ -8044,7 +8310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>331</v>
       </c>
@@ -8061,7 +8327,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>332</v>
       </c>
@@ -8078,7 +8344,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>333</v>
       </c>
@@ -8095,7 +8361,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>334</v>
       </c>
@@ -8112,7 +8378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>335</v>
       </c>
@@ -8142,14 +8408,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>336</v>
       </c>
@@ -8160,7 +8426,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>337</v>
       </c>
@@ -8174,7 +8440,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>338</v>
       </c>
@@ -8185,7 +8451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>339</v>
       </c>
@@ -8196,7 +8462,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>340</v>
       </c>
@@ -8207,7 +8473,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>341</v>
       </c>
@@ -8221,7 +8487,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
@@ -8235,7 +8501,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
@@ -8252,7 +8518,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>344</v>
       </c>
@@ -8269,7 +8535,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>345</v>
       </c>
@@ -8286,7 +8552,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>346</v>
       </c>
@@ -8303,7 +8569,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>347</v>
       </c>
@@ -8320,7 +8586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>348</v>
       </c>
@@ -8337,7 +8603,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>349</v>
       </c>
@@ -8351,7 +8617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>350</v>
       </c>
@@ -8368,7 +8634,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>351</v>
       </c>
@@ -8385,7 +8651,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>352</v>
       </c>
@@ -8402,7 +8668,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>353</v>
       </c>
@@ -8419,7 +8685,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>354</v>
       </c>
@@ -8436,7 +8702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>355</v>
       </c>
@@ -8450,7 +8716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>356</v>
       </c>
@@ -8464,7 +8730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>357</v>
       </c>
@@ -8481,7 +8747,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>358</v>
       </c>
@@ -8498,7 +8764,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>359</v>
       </c>
@@ -8515,7 +8781,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>390</v>
       </c>
@@ -8532,7 +8798,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>360</v>
       </c>
@@ -8549,7 +8815,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>361</v>
       </c>
@@ -8566,7 +8832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>362</v>
       </c>
@@ -8583,7 +8849,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>363</v>
       </c>
@@ -8600,7 +8866,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>364</v>
       </c>
@@ -8614,7 +8880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>365</v>
       </c>
@@ -8631,7 +8897,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>366</v>
       </c>
@@ -8648,7 +8914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>367</v>
       </c>
@@ -8665,7 +8931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>368</v>
       </c>
@@ -8682,7 +8948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>369</v>
       </c>
@@ -8699,7 +8965,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>370</v>
       </c>
@@ -8716,7 +8982,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>371</v>
       </c>
@@ -8733,7 +8999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>372</v>
       </c>
@@ -8750,7 +9016,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>373</v>
       </c>
@@ -8767,7 +9033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>374</v>
       </c>
@@ -8784,7 +9050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>375</v>
       </c>
@@ -8801,7 +9067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>376</v>
       </c>
@@ -8818,7 +9084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>377</v>
       </c>
@@ -8835,7 +9101,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>378</v>
       </c>
@@ -8852,7 +9118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>379</v>
       </c>
@@ -8869,7 +9135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>380</v>
       </c>
@@ -8886,7 +9152,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>381</v>
       </c>
@@ -8903,7 +9169,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>382</v>
       </c>
@@ -8920,7 +9186,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>383</v>
       </c>
@@ -8937,7 +9203,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>384</v>
       </c>
@@ -8954,7 +9220,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>385</v>
       </c>
@@ -8971,7 +9237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>386</v>
       </c>
@@ -8988,7 +9254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>387</v>
       </c>
@@ -9005,7 +9271,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>388</v>
       </c>
@@ -9022,7 +9288,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>389</v>
       </c>
@@ -9052,11 +9318,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9171,4 +9437,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Language Waves/Wave7.xlsx
+++ b/docs/Language Waves/Wave7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="de_intl" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="418">
   <si>
     <t>http://www.cisco.com/web/DE/ordering/index.html</t>
   </si>
@@ -1271,6 +1271,18 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/IN/products/wireless/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/index.html</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1635,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
@@ -3230,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
         <v>156</v>
@@ -3259,24 +3271,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>183</v>
@@ -3284,23 +3293,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9523,10 +9521,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,7 +9535,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
         <v>156</v>
@@ -9551,24 +9549,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>183</v>
@@ -9576,23 +9571,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
         <v>183</v>
       </c>
     </row>
